--- a/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/o/2022-02-19_NGC2346_o_shifts.xlsx
+++ b/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/o/2022-02-19_NGC2346_o_shifts.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -41,17 +41,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -64,8 +66,8 @@
   <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
-    <col min="2" max="2" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/o/2022-02-19_NGC2346_o_shifts.xlsx
+++ b/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/o/2022-02-19_NGC2346_o_shifts.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,81 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +124,76 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,8 +206,8 @@
   <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.42578125" customWidth="true"/>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -80,122 +220,122 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>8.0722036361694336</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
-        <v>-5.727656364440918</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>16.278537750244141</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0">
-        <v>-14.68413257598877</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>81.844612121582031</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0">
-        <v>-41.989376068115234</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>54.675956726074219</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0">
-        <v>-20.874082565307617</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>28.151962280273438</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0">
-        <v>-48.6927490234375</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>40.940818786621094</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0">
-        <v>-190.22181701660156</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-10.08099365234375</v>
+        <v>-3</v>
       </c>
       <c r="B8" s="0">
-        <v>-89.622917175292969</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-22.799051284790039</v>
+        <v>-18</v>
       </c>
       <c r="B9" s="0">
-        <v>-105.05756378173828</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-32.883514404296875</v>
+        <v>-34</v>
       </c>
       <c r="B10" s="0">
-        <v>-126.70774841308594</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-88.088356018066406</v>
+        <v>-66</v>
       </c>
       <c r="B11" s="0">
-        <v>-127.24551391601563</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>44.268100738525391</v>
+        <v>-72</v>
       </c>
       <c r="B12" s="0">
-        <v>-92.9910888671875</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>62.778064727783203</v>
+        <v>-95</v>
       </c>
       <c r="B13" s="0">
-        <v>-135.771484375</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-134.57005310058594</v>
+        <v>-133</v>
       </c>
       <c r="B14" s="0">
-        <v>-173.30189514160156</v>
+        <v>-218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-184.44850158691406</v>
+        <v>-177</v>
       </c>
       <c r="B15" s="0">
-        <v>-269.74832153320313</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-229.20382690429688</v>
+        <v>-230</v>
       </c>
       <c r="B16" s="0">
-        <v>-251.84916687011719</v>
+        <v>-251</v>
       </c>
     </row>
   </sheetData>
